--- a/biology/Botanique/Aerides_lawrenceae/Aerides_lawrenceae.xlsx
+++ b/biology/Botanique/Aerides_lawrenceae/Aerides_lawrenceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aerides lawrenceae est une espèce d'orchidées épiphytes originaire des Philippines.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aerides sanderiana Rchb.f., 1884
 Aerides lawrenceae var. amesiana  Sander ex Kraenzl., 1891
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts de Mindanao et de Cebu, jusqu'à 500 mètres d'altitude. Son habitat n'est pas protégé, l'espèce est considérée en danger de disparition du fait de la déforestation et de la cueillette des fleurs.
 </t>
@@ -578,7 +594,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aerides lawrenceaeThe Orchid Album1887.
